--- a/com.freecrm/testdata/test_data.xlsx
+++ b/com.freecrm/testdata/test_data.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.freecrm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA82EA15-671D-4FE6-96AD-B6D55EE0F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51628DB-889C-4D2D-8D3B-0117BA4E2A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{15BB0DDE-0818-4DE4-BF4F-9A0B827D75DD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15BB0DDE-0818-4DE4-BF4F-9A0B827D75DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="login_crm" sheetId="1" r:id="rId1"/>
+    <sheet name="createContact_crm" sheetId="3" r:id="rId2"/>
+    <sheet name="signup_aparments.com" sheetId="2" r:id="rId3"/>
+    <sheet name="signin_apartments.com" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>email</t>
   </si>
@@ -47,7 +50,136 @@
     <t>abdullah.noor14@gmail.com</t>
   </si>
   <si>
-    <t>abcd1234!</t>
+    <t>Abcd1234!</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last name </t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Noor</t>
+  </si>
+  <si>
+    <t>Qquerty123!</t>
+  </si>
+  <si>
+    <t>Qquerty123!@gmail.com</t>
+  </si>
+  <si>
+    <t>Qquerty124!@gmail.com</t>
+  </si>
+  <si>
+    <t>Qquerty125!@gmail.com</t>
+  </si>
+  <si>
+    <t>anoor37290@gmail.com</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Abdullah Noor</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>abc123!@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Dalal</t>
+  </si>
+  <si>
+    <t>Sadouni</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>abc124!@gmail.com</t>
+  </si>
+  <si>
+    <t>123 main Ave</t>
+  </si>
+  <si>
+    <t>123 main Street</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Auooz</t>
+  </si>
+  <si>
+    <t>Ahsan</t>
+  </si>
+  <si>
+    <t>abc125!@gmail.com</t>
+  </si>
+  <si>
+    <t>123 main Drive</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
@@ -410,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D004AA4E-5106-42F0-B6B8-A49D36855852}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -437,9 +569,382 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{4C2CF5C4-92EA-44AE-B4C1-0A1CD04151B8}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C54408A5-8255-4006-9B31-3A21B80CA92D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C206A22-FFBF-4E9C-A0FA-5D0C5B7946C5}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.06640625" customWidth="1"/>
+    <col min="6" max="6" width="15.06640625" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.46484375" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" customWidth="1"/>
+    <col min="13" max="13" width="7.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>12347</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C5E0707B-2F41-49AC-B4C4-AE907486F316}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{915C75AB-8EF2-4E1D-AED5-A43919EE2FE3}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{E3712C35-31B1-4568-ACCA-825058DDB02A}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{DA6005D3-40BA-468C-B0E8-9B52B3B7A708}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{42E2D2E4-CF79-469E-984E-85EA59A52D8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B00444-EFD9-469B-A28D-2EA80ABF9796}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FC4E71D2-8681-44A3-B1B9-621582B2CB21}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0EA9E0B5-64EC-4588-9B12-A4FE94AC78E1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7F64D0B4-B5BA-4985-BAA5-DCD138F25977}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFF12FD-8012-4588-9B1B-1AB7BBB5C95A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E1E01DC-9AD9-469C-A0DD-0E18A4125570}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7D1C9D12-6194-4584-A440-F22D0C7E260F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FF4DFFA3-A23D-4704-9359-FF8BF17F5ECA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
